--- a/medicine/Mort/Funérailles_de_Talaat_Pacha/Funérailles_de_Talaat_Pacha.xlsx
+++ b/medicine/Mort/Funérailles_de_Talaat_Pacha/Funérailles_de_Talaat_Pacha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fun%C3%A9railles_de_Talaat_Pacha</t>
+          <t>Funérailles_de_Talaat_Pacha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les funérailles nationales de Talaat Pacha, ancien grand vizir de l'Empire ottoman et l'un des principaux architectes du génocide arménien, ont eu lieu au monument de la liberté (en), à Istanbul, en Turquie, le 25 février 1943. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fun%C3%A9railles_de_Talaat_Pacha</t>
+          <t>Funérailles_de_Talaat_Pacha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la demande du bureau du premier ministre de Turquie Şükrü Saracoğlu[2], la dépouille de Talaat Pacha est déterrée et transportée en Turquie. Il avait été enterré à Berlin, en Allemagne, le 19 mars 1921, à la suite de son assassinat. 
-Le Premier ministre Şükrü Saracoğlu, l'ambassadeur de l'Allemagne nazie, en Turquie, Franz von Papen, et le journaliste turc Ahmet Emin Yalman (en) assistent aux funérailles[3][4][5].
-Par ce geste, Adolf Hitler espère obtenir le soutien de la Turquie à l'axe Rome-Berlin-Tokyo, pendant la Seconde Guerre mondiale[4].
-Hüseyin Cahit Yalçın (en) prononce l'oraison funèbre et Talaat Pacha est enterré au monument de la liberté (en), initialement dédié à ceux qui ont perdu la vie en empêchant le contrecoup ottoman de 1909[1].
-L'historien suisse Hans-Lukas Kieser (en) affirme que la ré-inhumation de Talaat Pacha symbolise sa « réhabilitation complète et son installation en tant que figure exceptionnelle et positive de l'histoire publique turque »[5].
-Le retour du corps de Talaat Pacha a lieu peu après l'institution de l'impôt sur la fortune de 1942, destiné à ruiner financièrement les citoyens non-musulmans de Turquie[6]. L'écrivain turc Orhan Seyfi Orhon (tr) condamne l'acquittement de l'assassin de Talaat Pacha, Soghomon Tehlirian, mais il affirme que l'Allemagne s'est rattrapée en transportant le corps de Talaat Pacha en Turquie en 1943[3]. Dans Ulus (en), le journaliste Yunus Nadi souligne la continuité et la dette de la république envers les efforts de Talaat Pacha, ainsi que la légitimité de la lutte contre les éléments non turcs[1],[7].
-En 1946, Yalçın publie les mémoires de Talaat Pacha, le décrivant dans la préface comme « un puissant patriote, prêt à tout sacrifier, même sa propre vie, pour le salut et le bien-être de la patrie »[8]. Dans le passé, des cérémonies commémoratives étaient organisées pour honorer Talaat Pacha au monument de la Liberté, mais cette pratique a cessé en 2013[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la demande du bureau du premier ministre de Turquie Şükrü Saracoğlu, la dépouille de Talaat Pacha est déterrée et transportée en Turquie. Il avait été enterré à Berlin, en Allemagne, le 19 mars 1921, à la suite de son assassinat. 
+Le Premier ministre Şükrü Saracoğlu, l'ambassadeur de l'Allemagne nazie, en Turquie, Franz von Papen, et le journaliste turc Ahmet Emin Yalman (en) assistent aux funérailles.
+Par ce geste, Adolf Hitler espère obtenir le soutien de la Turquie à l'axe Rome-Berlin-Tokyo, pendant la Seconde Guerre mondiale.
+Hüseyin Cahit Yalçın (en) prononce l'oraison funèbre et Talaat Pacha est enterré au monument de la liberté (en), initialement dédié à ceux qui ont perdu la vie en empêchant le contrecoup ottoman de 1909.
+L'historien suisse Hans-Lukas Kieser (en) affirme que la ré-inhumation de Talaat Pacha symbolise sa « réhabilitation complète et son installation en tant que figure exceptionnelle et positive de l'histoire publique turque ».
+Le retour du corps de Talaat Pacha a lieu peu après l'institution de l'impôt sur la fortune de 1942, destiné à ruiner financièrement les citoyens non-musulmans de Turquie. L'écrivain turc Orhan Seyfi Orhon (tr) condamne l'acquittement de l'assassin de Talaat Pacha, Soghomon Tehlirian, mais il affirme que l'Allemagne s'est rattrapée en transportant le corps de Talaat Pacha en Turquie en 1943. Dans Ulus (en), le journaliste Yunus Nadi souligne la continuité et la dette de la république envers les efforts de Talaat Pacha, ainsi que la légitimité de la lutte contre les éléments non turcs,.
+En 1946, Yalçın publie les mémoires de Talaat Pacha, le décrivant dans la préface comme « un puissant patriote, prêt à tout sacrifier, même sa propre vie, pour le salut et le bien-être de la patrie ». Dans le passé, des cérémonies commémoratives étaient organisées pour honorer Talaat Pacha au monument de la Liberté, mais cette pratique a cessé en 2013.
 </t>
         </is>
       </c>
